--- a/main/ig/StructureDefinition-fr-lm-exposition-radiations.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-exposition-radiations.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T13:49:34+00:00</t>
+    <t>2026-01-19T11:08:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-exposition-radiations.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-exposition-radiations.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-19T11:08:31+00:00</t>
+    <t>2026-01-19T13:54:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-exposition-radiations.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-exposition-radiations.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-19T13:54:24+00:00</t>
+    <t>2026-01-23T08:28:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-exposition-radiations.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-exposition-radiations.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-23T08:28:04+00:00</t>
+    <t>2026-01-28T14:36:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-exposition-radiations.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-exposition-radiations.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="107">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-28T14:36:08+00:00</t>
+    <t>2026-02-05T08:09:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -332,6 +332,16 @@
   </si>
   <si>
     <t>Entrée Quantité</t>
+  </si>
+  <si>
+    <t>fr-lm-exposition-radiations.entree.administrationRadiopharmaceutique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/document/core/StructureDefinition/fr-lm-administration-produit-de-sante
+</t>
+  </si>
+  <si>
+    <t>Entrée administration des produits radiopharmaceutiques</t>
   </si>
 </sst>
 </file>
@@ -636,7 +646,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ9"/>
+  <dimension ref="A1:AJ10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -645,8 +655,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.4453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.4453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.6875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="56.6875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
@@ -655,7 +665,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="76.875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="83.87109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -676,7 +686,7 @@
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="45.4453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="56.6875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
@@ -1592,6 +1602,106 @@
         <v>73</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
